--- a/biology/Botanique/Erythroxylum/Erythroxylum.xlsx
+++ b/biology/Botanique/Erythroxylum/Erythroxylum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythroxylum est un genre de plantes de la famille des Erythroxylaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et sections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 janvier 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 janvier 2020) :
 section Erythroxylum sect. Archerythroxylum Schulz
 Erythroxylum argentinum O. E. Schulz
 Erythroxylum coca Lam.
@@ -627,7 +641,7 @@
 Erythroxylum sinense Y. C. Wu
 Erythroxylum sobraleanum Loiola &amp; L.S. Cordeiro
 Erythroxylum urbanii O.E. Schulz
-Selon Catalogue of Life                                   (14 janvier 2020)[3] :
+Selon Catalogue of Life                                   (14 janvier 2020) :
 Erythroxylum acrobeles Gentner
 Erythroxylum acuminatum Ruiz &amp; Pav.
 Erythroxylum acutum Gentner
@@ -883,7 +897,7 @@
 Erythroxylum xerophilum H. Perrier
 Erythroxylum zambesiacum N. Robson
 Erythroxylum zeylanicum O. E. Schulz
-Selon NCBI  (14 janvier 2020)[4] :
+Selon NCBI  (14 janvier 2020) :
 Erythroxylum acuminatum Ruiz &amp; Pav., 1957
 Erythroxylum affine A.St.-Hil., 1829
 Erythroxylum alaternifolium A.Rich., 1841
@@ -1005,7 +1019,7 @@
 Erythroxylum williamsii Standl. ex Plowman, 1982
 Erythroxylum xerophilum H.Perrier, 1949
 Erythroxylum zeylanicum O.E.Schulz, 1907
-Selon The Plant List            (14 janvier 2020)[5] :
+Selon The Plant List            (14 janvier 2020) :
 Erythroxylum acrobeles W.A.Gentner
 Erythroxylum acuminatum Ruiz &amp; Pav.
 Erythroxylum acutum W.A.Gentner
@@ -1264,7 +1278,7 @@
 Erythroxylum xerophilum H.Perrier
 Erythroxylum zambesiacum N.Robson
 Erythroxylum zeylanicum O.E.Schulz
-Selon Tropicos                                           (14 janvier 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 janvier 2020) (Attention liste brute contenant possiblement des synonymes) :
 Erythroxylum acranthum Hemsl.
 Erythroxylum acrobeles W.A. Gentner
 Erythroxylum acuminatum Ruiz &amp; Pav.
@@ -1459,7 +1473,7 @@
 Erythroxylum laurifolium Lam.
 Erythroxylum laurinum Planch. &amp; Linden ex Triana &amp; Planch.
 Erythroxylum leal-costae Plowman
-Eryth</t>
+Erythroxylum leandri</t>
         </is>
       </c>
     </row>
